--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,31 +629,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 4424-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 4424-2021.xlsx", "A 4424-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 4424-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 4424-2021.png", "A 4424-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/knärot/A 4424-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/knärot/A 4424-2021.png", "A 4424-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 4424-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 4424-2021.docx", "A 4424-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 4424-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 4424-2021.docx", "A 4424-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 4424-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 4424-2021.docx", "A 4424-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 4424-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 4424-2021.docx", "A 4424-2021")</f>
         <v/>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 31341-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 31341-2022.xlsx", "A 31341-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 31341-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 31341-2022.png", "A 31341-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 31341-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 31341-2022.docx", "A 31341-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 31341-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 31341-2022.docx", "A 31341-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 31341-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 31341-2022.docx", "A 31341-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 31341-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 31341-2022.docx", "A 31341-2022")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 43453-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 43453-2018.xlsx", "A 43453-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 43453-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 43453-2018.png", "A 43453-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 43453-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 43453-2018.docx", "A 43453-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 43453-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 43453-2018.docx", "A 43453-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 43453-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 43453-2018.docx", "A 43453-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 43453-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 43453-2018.docx", "A 43453-2018")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -889,27 +889,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 11214-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 11214-2023.xlsx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 11214-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 11214-2023.png", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 11214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 11214-2023.docx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 11214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 11214-2023.docx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 11214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 11214-2023.docx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 11214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 11214-2023.docx", "A 11214-2023")</f>
         <v/>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 13991-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/artfynd/A 13991-2023.xlsx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 13991-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/kartor/A 13991-2023.png", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 13991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 13991-2023.docx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 13991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 13991-2023.docx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 13991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 13991-2023.docx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 13991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 13991-2023.docx", "A 13991-2023")</f>
         <v/>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2386,23 +2386,23 @@
       </c>
       <c r="R30" s="2" t="inlineStr"/>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/knärot/A 12417-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/knärot/A 12417-2019.png", "A 12417-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 12417-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomål/A 12417-2019.docx", "A 12417-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 12417-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/klagomålsmail/A 12417-2019.docx", "A 12417-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 12417-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsyn/A 12417-2019.docx", "A 12417-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 12417-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARGARDA/tillsynsmail/A 12417-2019.docx", "A 12417-2019")</f>
         <v/>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y185"/>
+  <dimension ref="A1:Y186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="R184" s="2" t="inlineStr"/>
     </row>
-    <row r="185">
+    <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
           <t>A 39475-2023</t>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11345,6 +11345,63 @@
         <v>0</v>
       </c>
       <c r="R185" s="2" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>A 44669-2023</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C186" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45189</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45189</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -572,7 +572,7 @@
         <v>44224</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44774</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>44992</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43325</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>43424</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>43430</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43433</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>43433</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>43433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43438</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43438</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43446</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43469</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43477</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43490</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43507</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43523</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43529</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43551</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43572</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>43598</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>43605</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>43606</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>43616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43620</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43633</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43636</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43656</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43656</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43681</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>43683</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>43683</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43746</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43759</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43759</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43795</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43801</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43873</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43879</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43892</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43900</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43909</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43978</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44026</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44036</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44048</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44061</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>44078</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>44106</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>44132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44152</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44175</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44175</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>44188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>44204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44211</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44211</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44214</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44228</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44236</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>44242</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>44256</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44299</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44314</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44314</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44314</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44314</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>44347</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44382</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>44463</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44492</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44496</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44496</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44501</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44501</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44511</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44511</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44511</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44515</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44533</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44572</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44580</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44601</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44607</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44677</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44680</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44693</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44798</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44861</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44908</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44914</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44920</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44925</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44936</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44942</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44943</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44946</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44952</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44960</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44960</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44968</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44973</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44979</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44984</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44984</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44984</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44992</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44999</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45033</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45040</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45040</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45041</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45050</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45058</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45079</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45090</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45098</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45166</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45189</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
